--- a/src/test/java/org/bbreak/excella/reports/tag/RowRepeatParamParserTest.xlsx
+++ b/src/test/java/org/bbreak/excella/reports/tag/RowRepeatParamParserTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="405" windowWidth="15480" windowHeight="11640" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="2640" yWindow="405" windowWidth="15480" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1905,7 +1905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2043,7 +2043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2134,7 +2134,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
